--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="117">
   <si>
     <t>列名</t>
   </si>
@@ -105,180 +105,345 @@
     <t>DateTime</t>
   </si>
   <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>CreateId</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
+    <t>CreateName</t>
+  </si>
+  <si>
+    <t>创建人名</t>
+  </si>
+  <si>
+    <t>EditDate</t>
+  </si>
+  <si>
+    <t>编辑时间</t>
+  </si>
+  <si>
+    <t>EditerId</t>
+  </si>
+  <si>
+    <t>编辑人ID</t>
+  </si>
+  <si>
+    <t>编辑人名</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Nvarchar(100)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>用户表(sys_UserInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别；0男，1女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除；0: 正常;1:删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用状态;0启用，1禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>getDate（）</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>CreateId</t>
-  </si>
-  <si>
-    <t>创建人ID</t>
-  </si>
-  <si>
-    <t>CreateName</t>
-  </si>
-  <si>
-    <t>创建人名</t>
-  </si>
-  <si>
-    <t>EditDate</t>
-  </si>
-  <si>
-    <t>编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表（sys_Role）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表（sys_Post）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表（sys_Role）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EditerId</t>
-  </si>
-  <si>
-    <t>编辑人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单表（sys_Menu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色关系表（sys_UserRole）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户菜单关系表（sys_UserMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色菜单关系表（sys_RoleMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位菜单关系表（sys_PostMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5张基础表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5张关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户岗位关系表（sys_UserPost）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编辑人名</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Nvarchar(100)</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>用户表(sys_UserInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别；0男，1女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SortNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除；0: 正常;1:删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用状态;0启用，1禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDate（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表（sys_Role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表（sys_Post）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表（sys_Role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniqueidentifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父的唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +469,14 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -412,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -434,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -861,18 +1037,18 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -893,10 +1069,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -906,43 +1082,43 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -956,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -976,28 +1152,28 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1008,12 +1184,12 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1024,12 +1200,12 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -1040,15 +1216,15 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1056,13 +1232,13 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1110,128 +1286,130 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
@@ -1239,15 +1417,15 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>19</v>
@@ -1255,15 +1433,15 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>19</v>
@@ -1271,182 +1449,182 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>19</v>
@@ -1454,15 +1632,15 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>19</v>
@@ -1470,15 +1648,15 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>19</v>
@@ -1486,216 +1664,216 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F55" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>19</v>
@@ -1703,15 +1881,15 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>19</v>
@@ -1719,15 +1897,15 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>19</v>
@@ -1735,15 +1913,1019 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A130:F130"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="123">
   <si>
     <t>列名</t>
   </si>
@@ -105,9 +105,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>创建时间</t>
-  </si>
-  <si>
     <t>CreateId</t>
   </si>
   <si>
@@ -144,70 +141,298 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDate（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色关系表（sys_UserRole）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户菜单关系表（sys_UserMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色菜单关系表（sys_RoleMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位菜单关系表（sys_PostMenu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5张基础表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5张关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户岗位关系表（sys_UserPost）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑人名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别；0男，1女，默认0男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用状态;0启用，1禁用；默认0启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除；0: 正常;1:删除，默认0正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序码，默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间，默认当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位表（sys_Post）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户表(sys_UserInfo)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别；0男，1女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SortNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除；0: 正常;1:删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用状态;0启用，1禁用</t>
+    <t>角色表（sys_Role）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表（sys_Dept）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,83 +440,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDate（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表（sys_Role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表（sys_Post）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表（sys_Role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniqueidentifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>父的唯一标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
+    <t>层级,默认0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,6 +452,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>层级,默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,143 +464,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色关系表（sys_UserRole）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户菜单关系表（sys_UserMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色菜单关系表（sys_RoleMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位菜单关系表（sys_PostMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5张基础表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5张关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户岗位关系表（sys_UserPost）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑人名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,6 +624,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,14 +933,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1037,18 +1062,20 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1096,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1082,43 +1109,43 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1132,16 +1159,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1152,28 +1179,28 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1184,12 +1211,12 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1200,12 +1227,12 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -1216,15 +1243,15 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1232,19 +1259,19 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1286,7 +1313,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -1296,15 +1323,15 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -1315,43 +1342,43 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1365,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -1385,28 +1412,28 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>27</v>
@@ -1417,12 +1444,12 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
@@ -1433,12 +1460,12 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
@@ -1449,15 +1476,15 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>19</v>
@@ -1465,19 +1492,19 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1519,7 +1546,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>12</v>
@@ -1530,43 +1557,43 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1580,16 +1607,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
@@ -1600,28 +1627,28 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>27</v>
@@ -1632,12 +1659,12 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>7</v>
@@ -1648,12 +1675,12 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>12</v>
@@ -1664,15 +1691,15 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>19</v>
@@ -1680,19 +1707,19 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
+      <c r="A53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1734,88 +1761,88 @@
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1829,16 +1856,16 @@
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
@@ -1849,28 +1876,28 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>27</v>
@@ -1881,12 +1908,12 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
@@ -1897,12 +1924,12 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>12</v>
@@ -1913,15 +1940,15 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>19</v>
@@ -1929,19 +1956,19 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
+      <c r="A70" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1983,120 +2010,120 @@
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0</v>
-      </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2110,16 +2137,16 @@
         <v>8</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -2130,28 +2157,28 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -2162,12 +2189,12 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -2178,12 +2205,12 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>12</v>
@@ -2194,15 +2221,15 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>19</v>
@@ -2210,19 +2237,19 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
+      <c r="A89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2246,7 +2273,7 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
@@ -2264,7 +2291,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -2274,15 +2301,15 @@
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
@@ -2292,10 +2319,10 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2309,16 +2336,16 @@
         <v>8</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
@@ -2329,35 +2356,35 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="7"/>
+      <c r="A99" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2399,7 +2426,7 @@
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
@@ -2409,15 +2436,15 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
@@ -2427,15 +2454,15 @@
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>7</v>
@@ -2445,10 +2472,10 @@
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2462,16 +2489,16 @@
         <v>8</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>7</v>
@@ -2482,35 +2509,35 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="7"/>
+      <c r="A110" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -2552,7 +2579,7 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>7</v>
@@ -2562,15 +2589,15 @@
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>7</v>
@@ -2580,10 +2607,10 @@
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2597,16 +2624,16 @@
         <v>8</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>7</v>
@@ -2617,35 +2644,35 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="7"/>
+      <c r="A120" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -2687,7 +2714,7 @@
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
@@ -2697,15 +2724,15 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
@@ -2715,10 +2742,10 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2732,16 +2759,16 @@
         <v>8</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>7</v>
@@ -2752,35 +2779,35 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="7"/>
+      <c r="A130" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -2822,7 +2849,7 @@
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
@@ -2832,15 +2859,15 @@
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>7</v>
@@ -2850,10 +2877,10 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2867,16 +2894,16 @@
         <v>8</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>7</v>
@@ -2887,45 +2914,45 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>110</v>
+      <c r="B140" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A70:F70"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A120:F120"/>
     <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="124">
   <si>
     <t>列名</t>
   </si>
@@ -470,23 +470,26 @@
   <si>
     <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +497,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +505,7 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -918,21 +921,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>109</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -980,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -996,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1044,12 +1047,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -1060,7 +1063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1262,8 +1265,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>108</v>
       </c>
@@ -1273,7 +1276,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1495,8 +1498,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>110</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -1710,8 +1713,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
@@ -1721,7 +1724,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>42</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>43</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" thickBot="1">
       <c r="A62" s="3" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>30</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -1959,8 +1962,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="70" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>117</v>
       </c>
@@ -1970,7 +1973,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1">
       <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>61</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="3" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>119</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>120</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="3" t="s">
         <v>26</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="A82" s="3" t="s">
         <v>30</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
       <c r="A83" s="3" t="s">
         <v>32</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1">
       <c r="A84" s="3" t="s">
         <v>64</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1">
       <c r="A85" s="3" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1">
       <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2243,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="89" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A89" s="6" t="s">
         <v>89</v>
       </c>
@@ -2251,7 +2254,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="3" t="s">
         <v>101</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>75</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>76</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="3" t="s">
         <v>26</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>30</v>
       </c>
@@ -2375,8 +2378,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="99" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A99" s="6" t="s">
         <v>96</v>
       </c>
@@ -2386,7 +2389,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>75</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>79</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1">
       <c r="A104" s="3" t="s">
         <v>80</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A105" s="3" t="s">
         <v>26</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1">
       <c r="A106" s="3" t="s">
         <v>28</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75" thickBot="1">
       <c r="A107" s="3" t="s">
         <v>30</v>
       </c>
@@ -2528,8 +2531,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="110" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>90</v>
       </c>
@@ -2539,7 +2542,7 @@
       <c r="E110" s="7"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" thickBot="1">
       <c r="A112" s="3" t="s">
         <v>6</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" thickBot="1">
       <c r="A113" s="3" t="s">
         <v>83</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" thickBot="1">
       <c r="A114" s="3" t="s">
         <v>84</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="29.25" thickBot="1">
       <c r="A115" s="3" t="s">
         <v>26</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A116" s="3" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" thickBot="1">
       <c r="A117" s="3" t="s">
         <v>30</v>
       </c>
@@ -2663,8 +2666,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A120" s="6" t="s">
         <v>91</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="E120" s="7"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" thickBot="1">
       <c r="A122" s="3" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" thickBot="1">
       <c r="A123" s="3" t="s">
         <v>86</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>84</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" thickBot="1">
       <c r="A125" s="3" t="s">
         <v>26</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" thickBot="1">
       <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
@@ -2798,8 +2801,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="130" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>92</v>
       </c>
@@ -2809,7 +2812,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.75" thickBot="1">
       <c r="A132" s="3" t="s">
         <v>6</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1">
       <c r="A133" s="3" t="s">
         <v>80</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A134" s="3" t="s">
         <v>84</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.75" thickBot="1">
       <c r="A136" s="3" t="s">
         <v>28</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.75" thickBot="1">
       <c r="A137" s="3" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="B140" s="5" t="s">
         <v>93</v>
       </c>
@@ -2943,16 +2946,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A130:F130"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A130:F130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="125">
   <si>
     <t>列名</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>测试表(t_demo)</t>
   </si>
 </sst>
 </file>
@@ -919,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2936,26 +2939,358 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="B140" s="5" t="s">
+    <row r="139" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A140" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A148" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A150" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A152" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A158" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C165" s="5" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A70:F70"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A120:F120"/>
     <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="系统基础表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="151">
   <si>
     <t>列名</t>
   </si>
@@ -188,294 +190,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getDate（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5张关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑人名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别；0男，1女，默认0男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用状态;0启用，1禁用；默认0启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除；0: 正常;1:删除，默认0正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序码，默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间，默认当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getDate（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>测试表(t_demo)</t>
+  </si>
+  <si>
+    <t>PostTypeId</t>
+  </si>
+  <si>
+    <t>岗位类型表唯一标识</t>
+  </si>
+  <si>
+    <t>UserEName</t>
+  </si>
+  <si>
+    <t>IDCard</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>用户英文名称</t>
+  </si>
+  <si>
+    <t>公司Idcard</t>
+  </si>
+  <si>
+    <t>CompanyIDCard</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>JoinDate</t>
+  </si>
+  <si>
+    <t>离开日期</t>
+  </si>
+  <si>
+    <t>入职日期</t>
+  </si>
+  <si>
+    <t>LeftDate</t>
+  </si>
+  <si>
+    <t>EName</t>
+  </si>
+  <si>
+    <t>英文名称</t>
+  </si>
+  <si>
+    <t>Nvarchar(200)</t>
+  </si>
+  <si>
+    <t>6张基础表</t>
+  </si>
+  <si>
+    <t>Nvarchar(1000)</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>国家；0中国，1乍得</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>是否删除；0: 正常;1:删除，默认0正常</t>
   </si>
   <si>
     <t>Pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniqueidentifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>父的唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级,默认0</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [sys_PostType] ADD [Deleted] [int] NOT NULL;
+ALTER TABLE [sys_PostType] ADD [SortNum] [int] NOT NULL;
+ALTER TABLE [sys_PostType] ADD [CreateDate] [datetime] NOT NULL;
+ALTER TABLE [sys_PostType] ADD [CreateId] [uniqueidentifier] NULL;
+ALTER TABLE [sys_PostType] ADD [CreateName] [nvarchar](50) NULL;
+ALTER TABLE [sys_PostType] ADD [EditDate] [datetime] NULL;
+ALTER TABLE [sys_PostType] ADD [EditerId] [uniqueidentifier] NULL;
+ALTER TABLE [sys_PostType] ADD [EditerName] [nvarchar](50) NULL;
+ALTER TABLE [sys_PostType] ADD [Remark] [nvarchar](1000) NULL;
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'是否删除；0: 正常;1:删除，默认0正常' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'Deleted'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'排序码，默认0' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'SortNum'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建时间，默认当前时间' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'CreateDate'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'CreateId'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人名' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'CreateName'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'编辑时间' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'EditDate'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'编辑人ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'EditerId'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'编辑人名' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'EditerName'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'备注' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'Remark'
+GO
+</t>
+  </si>
+  <si>
+    <t>用户表(Sys_UserInfo)</t>
+  </si>
+  <si>
+    <t>岗位类型表（Sys_PostType）</t>
+  </si>
+  <si>
+    <t>岗位表（Sys_Post）</t>
+  </si>
+  <si>
+    <t>角色表（Sys_Role）</t>
+  </si>
+  <si>
+    <t>部门表（Sys_Dept）</t>
+  </si>
+  <si>
+    <t>菜单表（Sys_Menu）</t>
+  </si>
+  <si>
+    <t>用户角色关系表（Sys_UserRole）</t>
+  </si>
+  <si>
+    <t>用户岗位关系表（Sys_UserPost）</t>
+  </si>
+  <si>
+    <t>用户菜单关系表（Sys_UserMenu）</t>
+  </si>
+  <si>
+    <t>角色菜单关系表（Sys_RoleMenu）</t>
+  </si>
+  <si>
+    <t>岗位菜单关系表（Sys_PostMenu）</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>用户表唯一标识</t>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+  </si>
+  <si>
+    <t>菜单唯一标识</t>
   </si>
   <si>
     <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuId</t>
   </si>
   <si>
     <t>PostId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色关系表（sys_UserRole）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户菜单关系表（sys_UserMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色菜单关系表（sys_RoleMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位菜单关系表（sys_PostMenu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5张基础表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5张关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户岗位关系表（sys_UserPost）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑人名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别；0男，1女，默认0男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用状态;0启用，1禁用；默认0启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除；0: 正常;1:删除，默认0正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序码，默认0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间，默认当前时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位表（sys_Post）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表(sys_UserInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表（sys_Role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表（sys_Dept）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父的唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级,默认0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单表（sys_Menu）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级,默认0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>测试表(t_demo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [Sys_PostMenu] ADD [CreateDate] [datetime] NOT NULL;
+ALTER TABLE [Sys_PostMenu] ADD [CreateId] [uniqueidentifier] NULL;
+ALTER TABLE [Sys_PostMenu] ADD [CreateName] [nvarchar](50) NULL;
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建时间，默认当前时间' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateDate'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateId'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人名' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateName'
+GO
+</t>
+  </si>
+  <si>
+    <t>部门岗位关系表（Sys_DeptPost）</t>
+  </si>
+  <si>
+    <t>Emailcnpcint</t>
+  </si>
+  <si>
+    <t>cnpcint邮箱</t>
+  </si>
+  <si>
+    <t>PhoneInChad</t>
+  </si>
+  <si>
+    <t>国内手机号码</t>
+  </si>
+  <si>
+    <t>乍得手机号码</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>分机号码</t>
   </si>
 </sst>
 </file>
@@ -616,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -632,6 +715,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
@@ -939,14 +1028,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1036,10 +1125,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -1047,15 +1136,15 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -1063,33 +1152,31 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -1097,119 +1184,113 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1217,31 +1298,33 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1249,313 +1332,360 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>33</v>
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="4">
         <v>0</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>5</v>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>8</v>
@@ -1563,350 +1693,336 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="53" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A53" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>5</v>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
       <c r="A62" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
       <c r="A64" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>19</v>
@@ -1914,146 +2030,150 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="67" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="70" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A70" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>5</v>
+      <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1">
       <c r="A72" s="3" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>8</v>
@@ -2061,243 +2181,261 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="3" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="A77" s="3" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="82" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A82" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>33</v>
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F84" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="89" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A89" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="4">
         <v>0</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>5</v>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D91" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -2306,133 +2444,125 @@
         <v>8</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="99" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A99" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="100" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A100" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" thickBot="1">
       <c r="A102" s="3" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
@@ -2442,72 +2572,68 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" thickBot="1">
       <c r="A103" s="3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" thickBot="1">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A105" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" thickBot="1">
       <c r="A106" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
@@ -2515,59 +2641,98 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" thickBot="1">
       <c r="A107" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="110" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A110" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A108" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>5</v>
+      <c r="A111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" thickBot="1">
       <c r="A112" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>7</v>
@@ -2576,109 +2741,101 @@
         <v>8</v>
       </c>
       <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" thickBot="1">
       <c r="A113" s="3" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" thickBot="1">
       <c r="A114" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="29.25" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" thickBot="1">
       <c r="A115" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A116" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" thickBot="1">
       <c r="A117" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A120" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
+      <c r="A120" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A121" s="1" t="s">
@@ -2720,7 +2877,7 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" thickBot="1">
       <c r="A123" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
@@ -2730,15 +2887,15 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" thickBot="1">
       <c r="A124" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
@@ -2748,10 +2905,10 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" thickBot="1">
@@ -2765,11 +2922,11 @@
         <v>8</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" thickBot="1">
@@ -2793,10 +2950,10 @@
         <v>30</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -2804,16 +2961,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="130" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A130" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
+    <row r="129" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
+    <row r="130" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A130" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" thickBot="1">
       <c r="A131" s="1" t="s">
@@ -2837,7 +2994,7 @@
     </row>
     <row r="132" spans="1:6" ht="15.75" thickBot="1">
       <c r="A132" s="3" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>7</v>
@@ -2855,7 +3012,7 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" thickBot="1">
       <c r="A133" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
@@ -2865,15 +3022,15 @@
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A134" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>7</v>
@@ -2883,10 +3040,10 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" thickBot="1">
@@ -2900,11 +3057,11 @@
         <v>8</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" thickBot="1">
@@ -2928,10 +3085,10 @@
         <v>30</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -2940,15 +3097,15 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A140" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
+    <row r="140" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A140" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" thickBot="1">
       <c r="A141" s="1" t="s">
@@ -2990,193 +3147,160 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1">
       <c r="A143" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F143" s="4" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" thickBot="1">
       <c r="A144" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F144" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1">
       <c r="A145" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F145" s="4" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1">
       <c r="A146" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" thickBot="1">
       <c r="A147" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" thickBot="1">
       <c r="A148" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" s="4">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A149" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A150" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A151" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A151" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D151" s="4">
-        <v>0</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A152" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D152" s="4">
-        <v>0</v>
-      </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4" t="s">
-        <v>106</v>
+      <c r="B152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1">
       <c r="A153" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F153" s="4" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" thickBot="1">
       <c r="A154" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>7</v>
@@ -3185,115 +3309,752 @@
         <v>8</v>
       </c>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F154" s="4" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" thickBot="1">
       <c r="A155" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F155" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="29.25" thickBot="1">
       <c r="A156" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" thickBot="1">
       <c r="A157" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1">
       <c r="A158" s="3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
+    <row r="161" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A161" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A164" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A165" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A168" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A171" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A174" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A175" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A176" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A181" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="10"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A187" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="4">
+        <v>0</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A191" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="4">
+        <v>0</v>
+      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A192" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="4">
+        <v>0</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A193" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D193" s="4">
+        <v>0</v>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A194" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A195" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A196" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A197" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A198" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A199" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A159" s="3" t="s">
+    <row r="200" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A200" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4" t="s">
+      <c r="B200" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>94</v>
+    <row r="206" spans="1:6">
+      <c r="B206" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A130:F130"/>
     <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A130:F130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="184.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="189.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D21D43-374F-403D-8FF6-6F1D1F53CB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统基础表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="通用表字段1" sheetId="2" r:id="rId2"/>
+    <sheet name="通用表字段2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="152">
   <si>
     <t>列名</t>
   </si>
@@ -422,6 +423,116 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>用户表(Sys_UserInfo)</t>
+  </si>
+  <si>
+    <t>岗位类型表（Sys_PostType）</t>
+  </si>
+  <si>
+    <t>岗位表（Sys_Post）</t>
+  </si>
+  <si>
+    <t>角色表（Sys_Role）</t>
+  </si>
+  <si>
+    <t>部门表（Sys_Dept）</t>
+  </si>
+  <si>
+    <t>菜单表（Sys_Menu）</t>
+  </si>
+  <si>
+    <t>用户角色关系表（Sys_UserRole）</t>
+  </si>
+  <si>
+    <t>用户岗位关系表（Sys_UserPost）</t>
+  </si>
+  <si>
+    <t>用户菜单关系表（Sys_UserMenu）</t>
+  </si>
+  <si>
+    <t>角色菜单关系表（Sys_RoleMenu）</t>
+  </si>
+  <si>
+    <t>岗位菜单关系表（Sys_PostMenu）</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>用户表唯一标识</t>
+  </si>
+  <si>
+    <t>部门表唯一标识</t>
+  </si>
+  <si>
+    <t>岗位表唯一标识</t>
+  </si>
+  <si>
+    <t>角色表唯一标识</t>
+  </si>
+  <si>
+    <t>菜单唯一标识</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>MenuId</t>
+  </si>
+  <si>
+    <t>PostId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [Sys_PostMenu] ADD [CreateDate] [datetime] NOT NULL;
+ALTER TABLE [Sys_PostMenu] ADD [CreateId] [uniqueidentifier] NULL;
+ALTER TABLE [Sys_PostMenu] ADD [CreateName] [nvarchar](50) NULL;
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建时间，默认当前时间' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateDate'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateId'
+GO
+EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人名' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateName'
+GO
+</t>
+  </si>
+  <si>
+    <t>部门岗位关系表（Sys_DeptPost）</t>
+  </si>
+  <si>
+    <t>Emailcnpcint</t>
+  </si>
+  <si>
+    <t>cnpcint邮箱</t>
+  </si>
+  <si>
+    <t>PhoneInChad</t>
+  </si>
+  <si>
+    <t>国内手机号码</t>
+  </si>
+  <si>
+    <t>乍得手机号码</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>分机号码</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -453,129 +564,24 @@
 EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'备注' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'sys_PostType', @level2type=N'COLUMN',@level2name=N'Remark'
 GO
 </t>
-  </si>
-  <si>
-    <t>用户表(Sys_UserInfo)</t>
-  </si>
-  <si>
-    <t>岗位类型表（Sys_PostType）</t>
-  </si>
-  <si>
-    <t>岗位表（Sys_Post）</t>
-  </si>
-  <si>
-    <t>角色表（Sys_Role）</t>
-  </si>
-  <si>
-    <t>部门表（Sys_Dept）</t>
-  </si>
-  <si>
-    <t>菜单表（Sys_Menu）</t>
-  </si>
-  <si>
-    <t>用户角色关系表（Sys_UserRole）</t>
-  </si>
-  <si>
-    <t>用户岗位关系表（Sys_UserPost）</t>
-  </si>
-  <si>
-    <t>用户菜单关系表（Sys_UserMenu）</t>
-  </si>
-  <si>
-    <t>角色菜单关系表（Sys_RoleMenu）</t>
-  </si>
-  <si>
-    <t>岗位菜单关系表（Sys_PostMenu）</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>用户表唯一标识</t>
-  </si>
-  <si>
-    <t>部门表唯一标识</t>
-  </si>
-  <si>
-    <t>岗位表唯一标识</t>
-  </si>
-  <si>
-    <t>角色表唯一标识</t>
-  </si>
-  <si>
-    <t>菜单唯一标识</t>
-  </si>
-  <si>
-    <t>RoleId</t>
-  </si>
-  <si>
-    <t>MenuId</t>
-  </si>
-  <si>
-    <t>PostId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [Sys_PostMenu] ADD [CreateDate] [datetime] NOT NULL;
-ALTER TABLE [Sys_PostMenu] ADD [CreateId] [uniqueidentifier] NULL;
-ALTER TABLE [Sys_PostMenu] ADD [CreateName] [nvarchar](50) NULL;
-EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建时间，默认当前时间' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateDate'
-GO
-EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateId'
-GO
-EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'创建人名' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'Sys_PostMenu', @level2type=N'COLUMN',@level2name=N'CreateName'
-GO
-</t>
-  </si>
-  <si>
-    <t>部门岗位关系表（Sys_DeptPost）</t>
-  </si>
-  <si>
-    <t>Emailcnpcint</t>
-  </si>
-  <si>
-    <t>cnpcint邮箱</t>
-  </si>
-  <si>
-    <t>PhoneInChad</t>
-  </si>
-  <si>
-    <t>国内手机号码</t>
-  </si>
-  <si>
-    <t>乍得手机号码</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>分机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -583,7 +589,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,7 +597,7 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1010,26 +1016,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1037,7 +1043,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1237,9 +1243,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -1250,10 +1256,10 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1266,12 +1272,12 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>88</v>
@@ -1282,12 +1288,12 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>88</v>
@@ -1298,10 +1304,10 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1353,9 +1359,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>47</v>
@@ -1371,7 +1377,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1511,10 +1517,10 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1522,7 +1528,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>113</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1784,10 +1790,10 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1795,7 +1801,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>90</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>26</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>32</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>37</v>
       </c>
@@ -2033,10 +2039,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="67" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2044,7 +2050,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>42</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>111</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>43</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>26</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>30</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>62</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>37</v>
       </c>
@@ -2264,10 +2270,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="82" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2275,7 +2281,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>114</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>42</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>103</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>46</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>43</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>26</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>30</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>60</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>37</v>
       </c>
@@ -2529,10 +2535,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="100" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -2540,7 +2546,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>113</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1">
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>114</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1">
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>42</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1">
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
@@ -2644,9 +2650,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1">
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>65</v>
@@ -2657,12 +2663,12 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>66</v>
@@ -2673,10 +2679,10 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>43</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1">
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1">
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>28</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1">
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1">
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>32</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1">
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>60</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1">
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>61</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1">
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>37</v>
       </c>
@@ -2826,10 +2832,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -2837,7 +2843,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1">
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1">
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1">
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>73</v>
       </c>
@@ -2890,10 +2896,10 @@
         <v>69</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>74</v>
       </c>
@@ -2908,10 +2914,10 @@
         <v>69</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>26</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
@@ -2961,10 +2967,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1">
+    <row r="129" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -2972,7 +2978,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1">
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1">
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>71</v>
       </c>
@@ -3025,10 +3031,10 @@
         <v>69</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>72</v>
       </c>
@@ -3043,10 +3049,10 @@
         <v>70</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1">
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>28</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1">
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>30</v>
       </c>
@@ -3096,10 +3102,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="140" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
+    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -3107,7 +3113,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1">
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1">
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>71</v>
       </c>
@@ -3160,10 +3166,10 @@
         <v>69</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>73</v>
       </c>
@@ -3178,10 +3184,10 @@
         <v>70</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>74</v>
       </c>
@@ -3196,10 +3202,10 @@
         <v>70</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>26</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1">
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>28</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1">
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>30</v>
       </c>
@@ -3249,10 +3255,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1">
+    <row r="150" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -3260,7 +3266,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1">
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1">
+    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1">
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>75</v>
       </c>
@@ -3313,10 +3319,10 @@
         <v>69</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>76</v>
       </c>
@@ -3331,10 +3337,10 @@
         <v>69</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="29.25" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>26</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1">
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>28</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>30</v>
       </c>
@@ -3384,10 +3390,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="23.25" customHeight="1" thickBot="1"/>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1">
+    <row r="160" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -3395,7 +3401,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1">
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1">
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>6</v>
       </c>
@@ -3433,9 +3439,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>7</v>
@@ -3448,12 +3454,12 @@
         <v>69</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>7</v>
@@ -3466,10 +3472,10 @@
         <v>69</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>26</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1">
+    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1">
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>30</v>
       </c>
@@ -3519,10 +3525,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1">
+    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -3530,7 +3536,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1">
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1">
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>6</v>
       </c>
@@ -3568,9 +3574,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1">
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>7</v>
@@ -3583,12 +3589,12 @@
         <v>69</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>7</v>
@@ -3601,10 +3607,10 @@
         <v>69</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>26</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" thickBot="1">
+    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>28</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" thickBot="1">
+    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>30</v>
       </c>
@@ -3654,8 +3660,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1">
+    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>89</v>
       </c>
@@ -3665,7 +3671,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1">
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" thickBot="1">
+    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" thickBot="1">
+    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>11</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" thickBot="1">
+    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1">
+    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>16</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" thickBot="1">
+    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>18</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" thickBot="1">
+    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>21</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1">
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>40</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1">
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1">
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>49</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1">
+    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" thickBot="1">
+    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>43</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" thickBot="1">
+    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>26</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1">
+    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>28</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1">
+    <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>30</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>32</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" thickBot="1">
+    <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>34</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1">
+    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>61</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1">
+    <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>37</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B206" s="5" t="s">
         <v>106</v>
       </c>
@@ -4016,45 +4022,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="184.140625" customWidth="1"/>
+    <col min="1" max="1" width="184.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="189.140625" customWidth="1"/>
+    <col min="1" max="1" width="189.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/数据库设计.xlsx
+++ b/Document/数据库设计.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D51A2DF-5355-4232-B3F9-7C9CD268ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7013ECA-DA7A-4DDF-B053-3E90F0B077A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统基础表" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="通用表字段2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -807,6 +806,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,12 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,14 +1118,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1149,20 +1148,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1441,152 +1440,152 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="s">
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1600,14 +1599,14 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1630,20 +1629,20 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
+      <c r="B34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1714,152 +1713,152 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
+      <c r="B42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
+      <c r="C44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="s">
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
+      <c r="C47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1873,14 +1872,14 @@
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1903,20 +1902,20 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12" t="s">
+      <c r="B52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1989,165 +1988,165 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="9">
         <v>0</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <v>0</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12" t="s">
+      <c r="B60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12" t="s">
+      <c r="C62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
+      <c r="B63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12" t="s">
+      <c r="C64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12" t="s">
+      <c r="C65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2170,20 +2169,20 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12" t="s">
+      <c r="B70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2220,165 +2219,165 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="9">
         <v>0</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="9">
         <v>0</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="C75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12" t="s">
+      <c r="B76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12" t="s">
+      <c r="C78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12" t="s">
+      <c r="B79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12" t="s">
+      <c r="C80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
+      <c r="C81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2401,20 +2400,20 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12" t="s">
+      <c r="B85" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2485,165 +2484,165 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="9">
         <v>0</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="9">
         <v>0</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="C92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12" t="s">
+      <c r="B93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12" t="s">
+      <c r="C95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12" t="s">
+      <c r="B96" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12" t="s">
+      <c r="C97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12" t="s">
+      <c r="C98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2666,20 +2665,20 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12" t="s">
+      <c r="B103" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2782,165 +2781,165 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="9">
         <v>0</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12" t="s">
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="9">
         <v>0</v>
       </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12" t="s">
+      <c r="E111" s="9"/>
+      <c r="F111" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="12" t="s">
+      <c r="C112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12" t="s">
+      <c r="E112" s="9"/>
+      <c r="F112" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12" t="s">
+      <c r="B113" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12" t="s">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12" t="s">
+      <c r="C115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12" t="s">
+      <c r="B116" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12" t="s">
+      <c r="C117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12" t="s">
+      <c r="C118" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="10"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2963,20 +2962,20 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12" t="s">
+      <c r="B123" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3017,65 +3016,65 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="12" t="s">
+      <c r="C126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12" t="s">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12" t="s">
+      <c r="B127" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12" t="s">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="10"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3098,20 +3097,20 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12" t="s">
+      <c r="B133" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="12" t="s">
+      <c r="F133" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3170,65 +3169,65 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="12" t="s">
+      <c r="C137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12" t="s">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12" t="s">
+      <c r="B138" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -3251,20 +3250,20 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12" t="s">
+      <c r="B144" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="12" t="s">
+      <c r="F144" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3305,65 +3304,65 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="12" t="s">
+      <c r="C147" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12" t="s">
+      <c r="E147" s="9"/>
+      <c r="F147" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12" t="s">
+      <c r="B148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12" t="s">
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="10"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -3386,20 +3385,20 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12" t="s">
+      <c r="B154" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F154" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3440,65 +3439,65 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="12" t="s">
+      <c r="C157" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12" t="s">
+      <c r="E157" s="9"/>
+      <c r="F157" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12" t="s">
+      <c r="B158" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12" t="s">
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -3521,20 +3520,20 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12" t="s">
+      <c r="B164" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="12" t="s">
+      <c r="F164" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3575,65 +3574,65 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="12" t="s">
+      <c r="C167" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12" t="s">
+      <c r="E167" s="9"/>
+      <c r="F167" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12" t="s">
+      <c r="B168" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12" t="s">
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="10"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3656,20 +3655,20 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12" t="s">
+      <c r="B174" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="12" t="s">
+      <c r="F174" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3806,152 +3805,152 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="9">
         <v>0</v>
       </c>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12" t="s">
+      <c r="E183" s="9"/>
+      <c r="F183" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="9">
         <v>0</v>
       </c>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12" t="s">
+      <c r="E184" s="9"/>
+      <c r="F184" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="12" t="s">
+      <c r="C185" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12" t="s">
+      <c r="E185" s="9"/>
+      <c r="F185" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B186" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12" t="s">
+      <c r="B186" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12" t="s">
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C188" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12" t="s">
+      <c r="C188" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B189" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12" t="s">
+      <c r="B189" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C190" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12" t="s">
+      <c r="C190" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12" t="s">
+      <c r="C191" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9" t="s">
         <v>39</v>
       </c>
     </row>
